--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370967.2699077249</v>
+        <v>359935.7857690579</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707513</v>
+        <v>14046880.39707514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901942</v>
+        <v>4671565.284901946</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7223812.409241121</v>
+        <v>7157206.08772936</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>128.8925684673735</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.20296397782708</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>161.673798810038</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.346502835824266</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>152.3574969145706</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.7047943182444</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>92.38090300811082</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.37136363030755</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>115.3288057180331</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>150.5442515289266</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>172.7014395312208</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.378995526348825</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>76.27687060941984</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>340.5500274667156</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>121.0972291259087</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>212.5222888148972</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>84.50036781746054</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2093,13 +2095,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.378995526348093</v>
+        <v>78.16614128474193</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>102.0412378013745</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>217.7468842345642</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2612,7 +2614,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>106.0910900114347</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2959,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>244.3883187778265</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3041,7 +3043,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>32.26487029143749</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3563,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3709,22 +3711,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>77.86122520429271</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3791,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.56894728178327</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>74.07475062513896</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.49822504924753</v>
+        <v>174.6927386526551</v>
       </c>
       <c r="C2" t="n">
-        <v>44.49822504924753</v>
+        <v>174.6927386526551</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924753</v>
+        <v>174.6927386526551</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924753</v>
+        <v>174.6927386526551</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>174.6927386526551</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>174.6927386526551</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="X2" t="n">
-        <v>475.662714570906</v>
+        <v>580.0300086977647</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.3465893407776</v>
+        <v>174.6927386526551</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233694</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="K3" t="n">
-        <v>695.3677541233694</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="L3" t="n">
-        <v>695.3677541233694</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="M3" t="n">
-        <v>695.3677541233694</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="N3" t="n">
-        <v>1128.080930530456</v>
+        <v>577.4153955460172</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530456</v>
+        <v>1128.080930530455</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>2142.891942377672</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y3" t="n">
         <v>1112.274122333384</v>
@@ -4483,7 +4485,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4507,19 +4509,19 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462377</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V4" t="n">
         <v>2061.60438497749</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1082.561118502788</v>
+        <v>46.86842993391849</v>
       </c>
       <c r="C5" t="n">
-        <v>1082.561118502788</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
-        <v>659.2684976877881</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>233.2915578356457</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>233.2915578356457</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>233.2915578356457</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
@@ -4571,46 +4573,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W5" t="n">
-        <v>1899.61838738015</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="X5" t="n">
-        <v>1487.898388547897</v>
+        <v>872.0540642705582</v>
       </c>
       <c r="Y5" t="n">
-        <v>1082.561118502788</v>
+        <v>466.7167942254486</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="N6" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N6" t="n">
-        <v>1389.040378766978</v>
-      </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1484.213795394888</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1484.213795394888</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>769.2673335619127</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C8" t="n">
-        <v>342.3666035752127</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="D8" t="n">
-        <v>342.3666035752127</v>
+        <v>137.8122684917837</v>
       </c>
       <c r="E8" t="n">
-        <v>342.3666035752127</v>
+        <v>137.8122684917837</v>
       </c>
       <c r="F8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M8" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>549.9383681074144</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>800.9555796531324</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y8" t="n">
-        <v>769.2673335619127</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>966.8891568663047</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>966.8891568663047</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M9" t="n">
-        <v>966.8891568663047</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N9" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1000.608253971443</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>828.6356908503592</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>665.3189179771299</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>499.1107121299834</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
-        <v>327.2489379045438</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>160.991968198776</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1934.533291375449</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1934.533291375449</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1659.680887547962</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1417.116990993767</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1190.774222683509</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1082.561118502788</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C11" t="n">
-        <v>1082.561118502788</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D11" t="n">
-        <v>1082.561118502788</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E11" t="n">
-        <v>656.5841786506454</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F11" t="n">
-        <v>231.4599968400456</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>231.4599968400456</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>667.4947029893171</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L11" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M11" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N11" t="n">
-        <v>667.4947029893171</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O11" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P11" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>1899.61838738015</v>
+        <v>2050.465353945991</v>
       </c>
       <c r="V11" t="n">
-        <v>1899.61838738015</v>
+        <v>1692.97593907224</v>
       </c>
       <c r="W11" t="n">
-        <v>1899.61838738015</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="X11" t="n">
-        <v>1487.898388547897</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="Y11" t="n">
-        <v>1082.561118502788</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="12">
@@ -5100,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>287.709308798102</v>
       </c>
       <c r="K12" t="n">
-        <v>866.8612493132769</v>
+        <v>287.709308798102</v>
       </c>
       <c r="L12" t="n">
-        <v>1417.526784297715</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M12" t="n">
-        <v>1417.526784297715</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N12" t="n">
-        <v>1417.526784297715</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.526784297715</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>454.3200315065851</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C13" t="n">
-        <v>454.3200315065851</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D13" t="n">
-        <v>454.3200315065851</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E13" t="n">
-        <v>454.3200315065851</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F13" t="n">
         <v>454.3200315065851</v>
@@ -5194,7 +5196,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5218,31 +5220,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109778</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1283.774063102812</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C14" t="n">
-        <v>1283.774063102812</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D14" t="n">
-        <v>1283.774063102812</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E14" t="n">
-        <v>1206.726719052893</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F14" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G14" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M14" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N14" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="O14" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="O14" t="n">
-        <v>1674.245717477938</v>
-      </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335517</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.61838738015</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="U14" t="n">
-        <v>1641.263477976562</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="V14" t="n">
-        <v>1283.774063102812</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="W14" t="n">
-        <v>1283.774063102812</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X14" t="n">
-        <v>1283.774063102812</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y14" t="n">
-        <v>1283.774063102812</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="15">
@@ -5337,22 +5339,22 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
         <v>316.1957143288386</v>
@@ -5361,13 +5363,13 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L15" t="n">
-        <v>316.1957143288386</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M15" t="n">
-        <v>316.1957143288386</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N15" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O15" t="n">
         <v>1389.040378766978</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.7432593109769</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>458.7432593109769</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>458.7432593109769</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>458.7432593109769</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
         <v>454.3200315065851</v>
@@ -5431,7 +5433,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>792.8272141938551</v>
+        <v>1300.862199257099</v>
       </c>
       <c r="C17" t="n">
-        <v>792.8272141938551</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="D17" t="n">
-        <v>792.8272141938551</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="E17" t="n">
-        <v>792.8272141938551</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F17" t="n">
         <v>448.8372874597989</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L17" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M17" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N17" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O17" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>1609.066928185038</v>
+        <v>2102.590819001862</v>
       </c>
       <c r="W17" t="n">
-        <v>1212.675578485385</v>
+        <v>1706.199469302208</v>
       </c>
       <c r="X17" t="n">
-        <v>1212.675578485385</v>
+        <v>1706.199469302208</v>
       </c>
       <c r="Y17" t="n">
-        <v>1212.675578485385</v>
+        <v>1300.862199257099</v>
       </c>
     </row>
     <row r="18">
@@ -5574,40 +5576,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M18" t="n">
-        <v>287.7093087981016</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N18" t="n">
-        <v>838.3748437825398</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O18" t="n">
-        <v>838.3748437825398</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P18" t="n">
         <v>1389.040378766978</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>861.7025734666139</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>689.7300103455299</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5698,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>2054.776204981511</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1774.591756481815</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1492.880289089844</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>1492.880289089844</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>1278.211310488937</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.868542178679</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N20" t="n">
-        <v>3114.325629236558</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>512.1245198631661</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C22" t="n">
-        <v>512.1245198631661</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D22" t="n">
-        <v>512.1245198631661</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924723</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>971.931772215671</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L24" t="n">
-        <v>971.931772215671</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M24" t="n">
-        <v>971.931772215671</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N24" t="n">
-        <v>971.931772215671</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3682.614429408222</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C25" t="n">
-        <v>3682.614429408222</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2179.643783443831</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1936.304435669731</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1656.119987170036</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1374.408519778064</v>
       </c>
       <c r="W25" t="n">
-        <v>3872.780398120288</v>
+        <v>1099.556115950577</v>
       </c>
       <c r="X25" t="n">
-        <v>3872.780398120288</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y25" t="n">
-        <v>3872.780398120288</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="26">
@@ -6224,31 +6226,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
         <v>5010.768376164567</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>1529.586448057074</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M27" t="n">
-        <v>1529.586448057074</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6361,16 +6363,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
         <v>345.8675501573982</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6412,19 +6414,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="Y28" t="n">
         <v>1375.649804642131</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V31" t="n">
-        <v>1295.161396097099</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W31" t="n">
-        <v>1020.308992269612</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H32" t="n">
         <v>137.1995846623573</v>
@@ -6698,52 +6700,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6835,16 +6837,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6886,13 +6888,13 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W34" t="n">
         <v>1844.556469506584</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3449.17966951489</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3416.588891442731</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3416.588891442731</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3250.380685595584</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4945.000622810562</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4664.816174310867</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4383.104706918895</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>4108.252303091408</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>3865.688406537213</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>3639.345638226955</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7172,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4640539534684</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>4143.246847793824</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>4225.654392279955</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>4225.654392279955</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="40">
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,19 +7359,19 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.492679006434</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V40" t="n">
-        <v>1955.492679006434</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W40" t="n">
-        <v>1680.640275178947</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
         <v>1601.992572952389</v>
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7397,49 +7399,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7488,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7594,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.49822504924753</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>44.49822504924753</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>44.49822504924753</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924753</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336857</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>595.1637600336857</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1123.5801824935</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102812</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031587</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>475.662714570906</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.32544452579629</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924753</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>44.49822504924753</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M45" t="n">
-        <v>44.49822504924753</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N45" t="n">
-        <v>595.1637600336857</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>1145.829295018124</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.87263914955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668685</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894585</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394889</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.502328002918</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1127.679347573484</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.679347573484</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1127.679347573484</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800521</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830994</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8067,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>458.4270447863562</v>
+        <v>184.1630016116746</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,19 +8221,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>300.4545145390017</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N6" t="n">
-        <v>267.0107895760204</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>97.19681650027576</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
-        <v>181.5591018660332</v>
+        <v>571.0335849150664</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>179.6167914733351</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>102.4815180266284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830989</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>266.2788756958126</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8784,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>378.9827212526459</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8866,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
@@ -8936,19 +8938,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258255</v>
+        <v>548.1209608588841</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290794</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6255558370718</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828691</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847016</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O20" t="n">
-        <v>763.5414113871921</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9711,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O24" t="n">
-        <v>502.8820865988767</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>867.7664080100944</v>
@@ -9963,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>323.7517007838052</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>763.4300748656131</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10431,10 +10433,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>535.9688468101303</v>
+        <v>567.4184811513355</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,13 +10445,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735953</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>106.3367244377128</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>218.8019602116015</v>
+        <v>728.3675687028212</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>571.1852249800525</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>611.7910214708218</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291358</v>
+        <v>97.06111056123879</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22562,7 +22564,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>165.997126273332</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.0809333668315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22753,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>6.759898196019378</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -22762,7 +22764,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080134</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>420.2852198510086</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22799,10 +22801,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>142.5321978261349</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,10 +22840,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>328.4920369843829</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>369.912533714351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.02950008889401</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,16 +23229,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>144.3454432117789</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>83.06992077833101</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.8853134985962</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23425,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>345.4402998442011</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.64613243500652</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23741,7 +23743,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>80.32291252577818</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>232.8172915991043</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.61596877375572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>331.1495128311542</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.8853134985969</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>66.39245920468201</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>54.35699555464791</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24652,22 +24654,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>117.9882506157206</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>34.50603394022488</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>84.51087971180863</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>137.9879671984357</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>162.2770323843602</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.0809333668315</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>198.0291291640731</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474962.3508667738</v>
+        <v>474962.3508667736</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474962.3508667737</v>
+        <v>474962.3508667736</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474962.3508667738</v>
+        <v>474962.3508667736</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474962.3508667737</v>
+        <v>474962.3508667735</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787903.9776706178</v>
+        <v>474962.3508667736</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787903.9776706178</v>
+        <v>787903.9776706179</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787903.9776706178</v>
+        <v>787903.9776706179</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787903.9776706179</v>
+        <v>787903.9776706178</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787903.9776706178</v>
+        <v>787903.9776706179</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787903.9776706179</v>
+        <v>787903.9776706178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474962.3508667738</v>
+        <v>787903.9776706178</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>152470.9723568845</v>
       </c>
       <c r="D2" t="n">
-        <v>152470.9723568846</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="E2" t="n">
-        <v>152470.9723568846</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="F2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="G2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="H2" t="n">
-        <v>252913.6814118513</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="I2" t="n">
         <v>252913.6814118513</v>
@@ -26344,7 +26346,7 @@
         <v>252913.6814118513</v>
       </c>
       <c r="M2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="N2" t="n">
         <v>252913.6814118513</v>
@@ -26353,7 +26355,7 @@
         <v>252913.6814118513</v>
       </c>
       <c r="P2" t="n">
-        <v>152470.9723568844</v>
+        <v>252913.6814118513</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>192142.8418533797</v>
       </c>
       <c r="J3" t="n">
         <v>145533.6699348165</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="C4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="D4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="E4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="F4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="G4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
@@ -26451,13 +26453,13 @@
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="P4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34949.1061971525</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136329.1182924334</v>
+        <v>-136329.1182924332</v>
       </c>
       <c r="C6" t="n">
-        <v>50075.61512230391</v>
+        <v>50075.61512230392</v>
       </c>
       <c r="D6" t="n">
-        <v>50075.61512230395</v>
+        <v>50075.61512230392</v>
       </c>
       <c r="E6" t="n">
-        <v>83703.21512230394</v>
+        <v>83703.21512230385</v>
       </c>
       <c r="F6" t="n">
-        <v>83703.21512230393</v>
+        <v>83703.21512230388</v>
       </c>
       <c r="G6" t="n">
-        <v>83703.21512230387</v>
+        <v>83703.21512230385</v>
       </c>
       <c r="H6" t="n">
-        <v>-77853.0346159676</v>
+        <v>83703.21512230382</v>
       </c>
       <c r="I6" t="n">
-        <v>117099.105371542</v>
+        <v>-75043.73648183767</v>
       </c>
       <c r="J6" t="n">
-        <v>-28434.56456327453</v>
+        <v>-28434.56456327444</v>
       </c>
       <c r="K6" t="n">
         <v>117099.105371542</v>
@@ -26552,16 +26554,16 @@
         <v>117099.105371542</v>
       </c>
       <c r="M6" t="n">
-        <v>117099.105371542</v>
+        <v>117099.1053715421</v>
       </c>
       <c r="N6" t="n">
         <v>117099.105371542</v>
       </c>
       <c r="O6" t="n">
-        <v>117099.1053715419</v>
+        <v>117099.105371542</v>
       </c>
       <c r="P6" t="n">
-        <v>83703.21512230384</v>
+        <v>117099.105371542</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>722.5561044572627</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>437.0840165728146</v>
+        <v>162.8199733981329</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N6" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>75.42597529544709</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
-        <v>144.2794790315872</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>357.2118800478172</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,19 +35658,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486528</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O20" t="n">
-        <v>726.1504520311679</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O24" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>845.2513212958648</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>302.4086725702635</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>726.150452031167</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>512.8720662978023</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>83.23994392538482</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>181.2265984013702</v>
+        <v>690.79220689259</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>533.7539620806207</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155941</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155941</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359935.7857690579</v>
+        <v>356455.8146769734</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>14046880.39707513</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901946</v>
+        <v>4671565.284901945</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>92.20371052207796</v>
       </c>
       <c r="H2" t="n">
-        <v>128.8925684673735</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -828,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>161.6737988100371</v>
+        <v>156.5164733647679</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.346502835824266</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>385.1181198233</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>260.4446813871638</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,22 +1135,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>92.38090300811082</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>95.47056429121459</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1353,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>174.2755538716517</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>172.7014395312208</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>124.7213724620508</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,13 +1584,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>265.5672156808874</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.67748875058447</v>
+        <v>37.69026512957882</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>121.0972291259087</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>25.90913186826758</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.50036781746054</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>323.4386896450703</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474193</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102.0412378013745</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2614,7 +2614,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.0910900114347</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>192.8717243028901</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.6927386526551</v>
+        <v>1318.815338590753</v>
       </c>
       <c r="C2" t="n">
-        <v>174.6927386526551</v>
+        <v>1318.815338590753</v>
       </c>
       <c r="D2" t="n">
-        <v>174.6927386526551</v>
+        <v>895.5227177757533</v>
       </c>
       <c r="E2" t="n">
-        <v>174.6927386526551</v>
+        <v>895.5227177757533</v>
       </c>
       <c r="F2" t="n">
-        <v>174.6927386526551</v>
+        <v>470.3985359651535</v>
       </c>
       <c r="G2" t="n">
-        <v>174.6927386526551</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
@@ -4336,19 +4336,19 @@
         <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462376</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103421</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300175</v>
+        <v>1724.152608635863</v>
       </c>
       <c r="X2" t="n">
-        <v>580.0300086977647</v>
+        <v>1724.152608635863</v>
       </c>
       <c r="Y2" t="n">
-        <v>174.6927386526551</v>
+        <v>1318.815338590753</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N3" t="n">
-        <v>577.4153955460172</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530455</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514893</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377672</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>517.8194722614688</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>517.8194722614688</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>354.5026993882395</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924752</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2061.60438497749</v>
+        <v>2066.813804619176</v>
       </c>
       <c r="T4" t="n">
-        <v>2061.60438497749</v>
+        <v>1823.474456845076</v>
       </c>
       <c r="U4" t="n">
-        <v>2061.60438497749</v>
+        <v>1543.29000834538</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1261.578540953409</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>986.7261371259217</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>744.1622405717268</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>517.8194722614688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.86842993391849</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924752</v>
+        <v>1281.923229516564</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>858.6306087015646</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.618387380149</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976561</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102811</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102811</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>872.0540642705582</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>466.7167942254486</v>
+        <v>1708.823959503264</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002561</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0056192934833</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="C8" t="n">
-        <v>561.1048893067834</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="D8" t="n">
-        <v>137.8122684917837</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="E8" t="n">
-        <v>137.8122684917837</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>438.801517000682</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
         <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630123</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585013</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002561</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109769</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109769</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109769</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1492.880289089844</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1316.844376088175</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1074.28047953398</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>471.3989550359474</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="C11" t="n">
-        <v>44.49822504924752</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D11" t="n">
-        <v>44.49822504924752</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M11" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O11" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U11" t="n">
-        <v>2050.465353945991</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V11" t="n">
-        <v>1692.97593907224</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W11" t="n">
-        <v>1296.584589372587</v>
+        <v>1773.637203075048</v>
       </c>
       <c r="X11" t="n">
-        <v>1296.584589372587</v>
+        <v>1773.637203075048</v>
       </c>
       <c r="Y11" t="n">
-        <v>891.2473193274775</v>
+        <v>1773.637203075048</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>287.709308798102</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>287.709308798102</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L12" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M12" t="n">
-        <v>838.37484378254</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N12" t="n">
-        <v>838.37484378254</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O12" t="n">
-        <v>838.37484378254</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109769</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109769</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109769</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109769</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.792697513689</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.891967526989</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D14" t="n">
-        <v>895.5993467119897</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L14" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N14" t="n">
-        <v>595.1637600336854</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O14" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.26943807629</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2165.64106180522</v>
+        <v>2186.840277584014</v>
       </c>
       <c r="T14" t="n">
-        <v>2165.64106180522</v>
+        <v>2186.840277584014</v>
       </c>
       <c r="U14" t="n">
-        <v>2165.64106180522</v>
+        <v>1928.485368180426</v>
       </c>
       <c r="V14" t="n">
-        <v>2165.64106180522</v>
+        <v>1570.995953306676</v>
       </c>
       <c r="W14" t="n">
-        <v>2165.64106180522</v>
+        <v>1174.604603607022</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.64106180522</v>
+        <v>1174.604603607022</v>
       </c>
       <c r="Y14" t="n">
-        <v>2165.64106180522</v>
+        <v>769.2673335619127</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>838.37484378254</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M15" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N15" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O15" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5466,22 +5466,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1300.862199257099</v>
+        <v>1195.244273414055</v>
       </c>
       <c r="C17" t="n">
-        <v>873.9614692703988</v>
+        <v>768.3435434273551</v>
       </c>
       <c r="D17" t="n">
-        <v>873.9614692703988</v>
+        <v>768.3435434273551</v>
       </c>
       <c r="E17" t="n">
-        <v>873.9614692703988</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F17" t="n">
-        <v>448.8372874597989</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002561</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002561</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>2102.590819001862</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W17" t="n">
-        <v>1706.199469302208</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X17" t="n">
-        <v>1706.199469302208</v>
+        <v>1615.092637705585</v>
       </c>
       <c r="Y17" t="n">
-        <v>1300.862199257099</v>
+        <v>1615.092637705585</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336854</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O18" t="n">
-        <v>838.37484378254</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>388.3325623957711</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C19" t="n">
-        <v>216.3599992746871</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D19" t="n">
-        <v>216.3599992746871</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3599992746871</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5700,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2127.492863465543</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1884.153515691443</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U19" t="n">
-        <v>1603.969067191748</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.257599799776</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.405195972289</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X19" t="n">
-        <v>804.8412994180946</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.4985311078367</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1322.50007669869</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C20" t="n">
-        <v>895.5993467119897</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M20" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N20" t="n">
-        <v>1696.494830002561</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462376</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462376</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462376</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.191253630123</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="Y20" t="n">
-        <v>1407.853983585013</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="21">
@@ -5813,37 +5813,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L21" t="n">
-        <v>595.1637600336854</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M21" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N21" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O21" t="n">
         <v>1302.520320645319</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.7875610435608</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C22" t="n">
-        <v>207.8149979224768</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D22" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E22" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
         <v>1074.392270743914</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686963</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291426</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.483482374059</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2179.643783443831</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1936.304435669731</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1656.119987170036</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1374.408519778064</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1099.556115950577</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>856.9922193963826</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>630.6494510861246</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>946.5481644506465</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6417,19 +6417,19 @@
         <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>2039.376393044857</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1757.664925652886</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1482.812521825399</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1482.812521825399</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6463,34 +6463,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
         <v>4789.842805209199</v>
@@ -6548,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1844.556469506584</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1844.556469506584</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1844.556469506584</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
@@ -6709,43 +6709,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3833.214576747413</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>109.7493563677404</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L33" t="n">
-        <v>109.7493563677404</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1844.556469506584</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1844.556469506584</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3950.770911629315</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>971.931772215671</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7174,34 +7174,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793824</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4225.654392279955</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>4225.654392279955</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1844.556469506584</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1844.556469506584</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1844.556469506584</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7411,31 +7411,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L41" t="n">
-        <v>1031.927761025105</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
         <v>5010.768376164567</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1680.682846292257</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7984,10 +7984,10 @@
         <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>111.3736009736646</v>
       </c>
       <c r="M2" t="n">
-        <v>571.1852249800521</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,10 +7996,10 @@
         <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8069,10 +8069,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>184.1630016116746</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378161</v>
+        <v>268.8396510847016</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204226</v>
@@ -8081,7 +8081,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955935</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P6" t="n">
-        <v>97.19681650027576</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150664</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487723</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>547.8252218830989</v>
+        <v>110.3411813754878</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>266.2788756958126</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>548.1209608588841</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>549.9687528290794</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>452.5855512828691</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O18" t="n">
-        <v>268.8396510847016</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>571.1449214366444</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9482,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3705437721218</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>314.6422086532173</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9959,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>273.92387204262</v>
+        <v>280.9771495655156</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10196,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10357,13 +10357,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>763.4300748656131</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>567.4184811513355</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10448,10 +10448,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>882.1738474735953</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125397</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10907,16 +10907,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>106.3367244377128</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>728.3675687028212</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>255.3808743436059</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11311,16 +11311,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>611.7910214708218</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11381,25 +11381,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>97.06111056123879</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>308.0919612643679</v>
       </c>
       <c r="H2" t="n">
-        <v>165.997126273332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22716,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>6.759898196019378</v>
+        <v>11.91722364128859</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>420.2852198510086</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>36.59905063032096</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,19 +22947,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22992,16 +22992,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>18.44967133088761</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>328.4920369843829</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>304.8251074952312</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>97.82832591756039</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>83.06992077833101</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.7060637406058</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.536664108324715</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.64613243500652</v>
+        <v>65.63335605601218</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>232.8172915991043</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>381.6936669756626</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>331.1495128311542</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>84.16410919885993</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>66.39245920468201</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.9882506157206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.51087971180863</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474962.3508667736</v>
+        <v>474962.3508667737</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474962.3508667736</v>
+        <v>474962.3508667737</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474962.3508667736</v>
+        <v>474962.3508667738</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474962.3508667736</v>
+        <v>474962.3508667737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474962.3508667735</v>
+        <v>474962.3508667737</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474962.3508667736</v>
+        <v>474962.3508667737</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787903.9776706179</v>
+        <v>787903.9776706178</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787903.9776706179</v>
+        <v>787903.9776706178</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787903.9776706179</v>
+        <v>787903.9776706178</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="C2" t="n">
         <v>152470.9723568845</v>
@@ -26322,16 +26322,16 @@
         <v>152470.9723568845</v>
       </c>
       <c r="E2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="F2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="G2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="H2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="I2" t="n">
         <v>252913.6814118513</v>
@@ -26343,13 +26343,13 @@
         <v>252913.6814118513</v>
       </c>
       <c r="L2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="M2" t="n">
         <v>252913.6814118514</v>
       </c>
       <c r="N2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="O2" t="n">
         <v>252913.6814118513</v>
@@ -26420,28 +26420,28 @@
         <v>34949.10619715249</v>
       </c>
       <c r="C4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="D4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="E4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="F4" t="n">
         <v>34949.10619715249</v>
       </c>
       <c r="G4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="H4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
@@ -26453,10 +26453,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
         <v>58064.51385187964</v>
@@ -26472,46 +26472,46 @@
         <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136329.1182924332</v>
+        <v>-136938.164004923</v>
       </c>
       <c r="C6" t="n">
-        <v>50075.61512230392</v>
+        <v>49466.56940981426</v>
       </c>
       <c r="D6" t="n">
-        <v>50075.61512230392</v>
+        <v>49466.56940981423</v>
       </c>
       <c r="E6" t="n">
-        <v>83703.21512230385</v>
+        <v>83094.16940981423</v>
       </c>
       <c r="F6" t="n">
-        <v>83703.21512230388</v>
+        <v>83094.16940981426</v>
       </c>
       <c r="G6" t="n">
-        <v>83703.21512230385</v>
+        <v>83094.16940981423</v>
       </c>
       <c r="H6" t="n">
-        <v>83703.21512230382</v>
+        <v>83094.16940981422</v>
       </c>
       <c r="I6" t="n">
-        <v>-75043.73648183767</v>
+        <v>-75094.76714402204</v>
       </c>
       <c r="J6" t="n">
-        <v>-28434.56456327444</v>
+        <v>-28485.59522545879</v>
       </c>
       <c r="K6" t="n">
-        <v>117099.105371542</v>
+        <v>117048.0747093577</v>
       </c>
       <c r="L6" t="n">
-        <v>117099.105371542</v>
+        <v>117048.0747093578</v>
       </c>
       <c r="M6" t="n">
-        <v>117099.1053715421</v>
+        <v>117048.0747093578</v>
       </c>
       <c r="N6" t="n">
-        <v>117099.105371542</v>
+        <v>117048.0747093578</v>
       </c>
       <c r="O6" t="n">
-        <v>117099.105371542</v>
+        <v>117048.0747093577</v>
       </c>
       <c r="P6" t="n">
-        <v>117099.105371542</v>
+        <v>117048.0747093577</v>
       </c>
     </row>
   </sheetData>
@@ -26792,22 +26792,22 @@
         <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -34704,10 +34704,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>73.06155854104168</v>
       </c>
       <c r="M2" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>162.8199733981329</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155939</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155939</v>
@@ -34801,7 +34801,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>263.0232516395694</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P6" t="n">
-        <v>75.42597529544709</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N8" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597938</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>510.5455990486529</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>245.6677613624793</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>510.5455990486528</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>415.0101894726378</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O18" t="n">
-        <v>245.6677613624794</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>158.2737632597939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>250.7519823203978</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>726.150452031167</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>544.3217006390075</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>844.8942246391492</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799168</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>83.23994392538482</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37797,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>690.79220689259</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38031,16 +38031,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>574.2156596605904</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>75.71808234769713</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
